--- a/AccountingApp/AccountingApp.Server/Proiect_contabil - OreSalarii.xlsx
+++ b/AccountingApp/AccountingApp.Server/Proiect_contabil - OreSalarii.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD3C4A9-DAF6-44B0-8BF5-EB19A5DB9F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TalentingSoftware\Proiect\Accounting-Project-TalentingSoftware\AccountingApp\AccountingApp.Server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659847FB-C5A8-42B8-9EB0-70291443F431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,15 +452,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,24 +487,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,121 +823,121 @@
   <dimension ref="A9:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="23" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="23" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="16" t="s">
+      <c r="N10" s="20"/>
+      <c r="O10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="16" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="23" t="s">
+      <c r="R10" s="24"/>
+      <c r="S10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="23"/>
+      <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" ht="15.6">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="19">
-        <v>44809</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22">
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="25">
+        <v>45264</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="21">
         <f>C11+1</f>
-        <v>44810</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="19">
+        <v>45265</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25">
         <f t="shared" ref="I11" si="0">G11+1</f>
-        <v>44811</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22">
+        <v>45266</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="21">
         <f t="shared" ref="M11" si="1">I11+1</f>
-        <v>44812</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="19">
+        <v>45267</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="25">
         <f>M11+1</f>
-        <v>44813</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22">
+        <v>45268</v>
+      </c>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="21">
         <f>O11+1</f>
-        <v>44814</v>
-      </c>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22">
+        <v>45269</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21">
         <f t="shared" ref="S11" si="2">Q11+1</f>
-        <v>44815</v>
-      </c>
-      <c r="T11" s="22"/>
+        <v>45270</v>
+      </c>
+      <c r="T11" s="21"/>
     </row>
-    <row r="12" spans="1:20" ht="31.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
@@ -970,7 +975,7 @@
       </c>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -1266,7 +1271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.6">
+    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1310,11 +1315,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="G10:H10"/>
@@ -1323,14 +1336,6 @@
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1339,9 +1344,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1562,22 +1570,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F01611-59F8-461B-B65F-F9ADFFD4C2BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB945C4A-1B8A-4C27-9C60-003AFD5DA4A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F39A38A-C6F2-4C0E-9A3C-B417F85AE75A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F39A38A-C6F2-4C0E-9A3C-B417F85AE75A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7fe84078-181e-402d-82e4-26070ac30be6"/>
+    <ds:schemaRef ds:uri="a30bae98-8748-47ee-b453-0597b6b5b448"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB945C4A-1B8A-4C27-9C60-003AFD5DA4A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F01611-59F8-461B-B65F-F9ADFFD4C2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AccountingApp/AccountingApp.Server/Proiect_contabil - OreSalarii.xlsx
+++ b/AccountingApp/AccountingApp.Server/Proiect_contabil - OreSalarii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TalentingSoftware\Proiect\Accounting-Project-TalentingSoftware\AccountingApp\AccountingApp.Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659847FB-C5A8-42B8-9EB0-70291443F431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB16B1-4DEB-4D58-975F-807B34FCA8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,6 +452,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,30 +487,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +823,7 @@
   <dimension ref="A9:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,90 +854,90 @@
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="20" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="22" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="22" t="s">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R10" s="24"/>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="17"/>
+      <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="20"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="19">
         <v>45264</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="21">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22">
         <f>C11+1</f>
         <v>45265</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="25">
+      <c r="H11" s="22"/>
+      <c r="I11" s="19">
         <f t="shared" ref="I11" si="0">G11+1</f>
         <v>45266</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="21">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22">
         <f t="shared" ref="M11" si="1">I11+1</f>
         <v>45267</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="25">
+      <c r="N11" s="22"/>
+      <c r="O11" s="19">
         <f>M11+1</f>
         <v>45268</v>
       </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="21">
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22">
         <f>O11+1</f>
         <v>45269</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21">
+      <c r="R11" s="22"/>
+      <c r="S11" s="22">
         <f t="shared" ref="S11" si="2">Q11+1</f>
         <v>45270</v>
       </c>
-      <c r="T11" s="21"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
@@ -988,9 +988,7 @@
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8">
-        <v>1000</v>
-      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1006,9 +1004,7 @@
       <c r="J13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="9">
-        <v>1000</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1320,6 +1316,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
@@ -1328,14 +1332,6 @@
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1344,12 +1340,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1570,15 +1563,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB945C4A-1B8A-4C27-9C60-003AFD5DA4A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F01611-59F8-461B-B65F-F9ADFFD4C2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1603,10 +1600,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F01611-59F8-461B-B65F-F9ADFFD4C2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB945C4A-1B8A-4C27-9C60-003AFD5DA4A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>